--- a/tables/tk-colours.xlsx
+++ b/tables/tk-colours.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayde\PycharmProjects\raspberrypi_cs370\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55922F7-6394-41E7-A4E5-34A1D12CB62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7610"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,9 +258,6 @@
     <t>cornsilk4</t>
   </si>
   <si>
-    <t>crymson</t>
-  </si>
-  <si>
     <t>cyan</t>
   </si>
   <si>
@@ -2316,12 +2314,15 @@
   </si>
   <si>
     <t>YellowGreen</t>
+  </si>
+  <si>
+    <t>crimson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2657,22 +2658,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A478" sqref="A478"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -3148,7 +3149,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
@@ -3666,7 +3667,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
@@ -3708,9 +3709,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>763</v>
       </c>
       <c r="B75" s="2">
         <v>220</v>
@@ -3722,37 +3723,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>255</v>
+      </c>
+      <c r="D76" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="2">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2">
-        <v>255</v>
-      </c>
-      <c r="D76" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>255</v>
+      </c>
+      <c r="D77" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B77" s="2">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2">
-        <v>255</v>
-      </c>
-      <c r="D77" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -3764,9 +3765,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -3778,9 +3779,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -3792,9 +3793,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -3806,9 +3807,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -3820,9 +3821,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2">
         <v>184</v>
@@ -3834,9 +3835,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2">
         <v>169</v>
@@ -3848,9 +3849,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
@@ -3862,9 +3863,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2">
         <v>169</v>
@@ -3876,9 +3877,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2">
         <v>189</v>
@@ -3890,9 +3891,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
         <v>139</v>
@@ -3904,9 +3905,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
         <v>85</v>
@@ -3918,9 +3919,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2">
         <v>255</v>
@@ -3932,9 +3933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
         <v>153</v>
@@ -3946,9 +3947,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2">
         <v>139</v>
@@ -3960,9 +3961,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2">
         <v>233</v>
@@ -3974,9 +3975,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2">
         <v>143</v>
@@ -3988,9 +3989,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2">
         <v>72</v>
@@ -4002,9 +4003,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2">
         <v>47</v>
@@ -4016,9 +4017,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2">
         <v>47</v>
@@ -4030,9 +4031,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
@@ -4044,9 +4045,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2">
         <v>148</v>
@@ -4058,9 +4059,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
@@ -4072,9 +4073,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
@@ -4086,9 +4087,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2">
         <v>184</v>
@@ -4100,9 +4101,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2">
         <v>255</v>
@@ -4114,9 +4115,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2">
         <v>238</v>
@@ -4128,9 +4129,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2">
         <v>205</v>
@@ -4142,9 +4143,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2">
         <v>139</v>
@@ -4156,9 +4157,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2">
         <v>169</v>
@@ -4170,9 +4171,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2">
         <v>0</v>
@@ -4184,9 +4185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2">
         <v>169</v>
@@ -4198,9 +4199,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2">
         <v>189</v>
@@ -4212,9 +4213,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2">
         <v>139</v>
@@ -4226,9 +4227,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2">
         <v>85</v>
@@ -4240,9 +4241,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2">
         <v>202</v>
@@ -4254,9 +4255,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2">
         <v>188</v>
@@ -4268,9 +4269,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2">
         <v>162</v>
@@ -4282,9 +4283,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2">
         <v>110</v>
@@ -4296,9 +4297,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2">
         <v>255</v>
@@ -4310,9 +4311,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2">
         <v>255</v>
@@ -4324,9 +4325,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2">
         <v>238</v>
@@ -4338,9 +4339,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2">
         <v>205</v>
@@ -4352,9 +4353,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2">
         <v>139</v>
@@ -4366,9 +4367,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2">
         <v>153</v>
@@ -4380,9 +4381,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2">
         <v>191</v>
@@ -4394,9 +4395,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2">
         <v>178</v>
@@ -4408,9 +4409,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2">
         <v>154</v>
@@ -4422,9 +4423,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2">
         <v>104</v>
@@ -4436,9 +4437,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2">
         <v>139</v>
@@ -4450,9 +4451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2">
         <v>233</v>
@@ -4464,9 +4465,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2">
         <v>143</v>
@@ -4478,9 +4479,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2">
         <v>193</v>
@@ -4492,9 +4493,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2">
         <v>180</v>
@@ -4506,9 +4507,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2">
         <v>155</v>
@@ -4520,9 +4521,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2">
         <v>105</v>
@@ -4534,9 +4535,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2">
         <v>72</v>
@@ -4548,9 +4549,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2">
         <v>47</v>
@@ -4562,9 +4563,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2">
         <v>151</v>
@@ -4576,9 +4577,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2">
         <v>141</v>
@@ -4590,9 +4591,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2">
         <v>121</v>
@@ -4604,9 +4605,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2">
         <v>82</v>
@@ -4618,9 +4619,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2">
         <v>47</v>
@@ -4632,9 +4633,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2">
         <v>0</v>
@@ -4646,9 +4647,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2">
         <v>148</v>
@@ -4660,9 +4661,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2">
         <v>255</v>
@@ -4674,9 +4675,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2">
         <v>0</v>
@@ -4688,9 +4689,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2">
         <v>255</v>
@@ -4702,9 +4703,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2">
         <v>255</v>
@@ -4716,9 +4717,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2">
         <v>238</v>
@@ -4730,9 +4731,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2">
         <v>205</v>
@@ -4744,9 +4745,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2">
         <v>139</v>
@@ -4758,9 +4759,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2">
         <v>0</v>
@@ -4772,9 +4773,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2">
         <v>0</v>
@@ -4786,9 +4787,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2">
         <v>0</v>
@@ -4800,9 +4801,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153" s="2">
         <v>0</v>
@@ -4814,9 +4815,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B154" s="2">
         <v>0</v>
@@ -4828,9 +4829,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B155" s="2">
         <v>105</v>
@@ -4842,9 +4843,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156" s="2">
         <v>105</v>
@@ -4856,9 +4857,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157" s="2">
         <v>105</v>
@@ -4870,9 +4871,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158" s="2">
         <v>105</v>
@@ -4884,9 +4885,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159" s="2">
         <v>30</v>
@@ -4898,9 +4899,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160" s="2">
         <v>30</v>
@@ -4912,9 +4913,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B161" s="2">
         <v>30</v>
@@ -4926,9 +4927,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162" s="2">
         <v>28</v>
@@ -4940,9 +4941,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B163" s="2">
         <v>24</v>
@@ -4954,9 +4955,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164" s="2">
         <v>16</v>
@@ -4968,9 +4969,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165" s="2">
         <v>178</v>
@@ -4982,9 +4983,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B166" s="2">
         <v>255</v>
@@ -4996,9 +4997,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B167" s="2">
         <v>238</v>
@@ -5010,9 +5011,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B168" s="2">
         <v>205</v>
@@ -5024,9 +5025,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169" s="2">
         <v>139</v>
@@ -5038,9 +5039,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B170" s="2">
         <v>255</v>
@@ -5052,9 +5053,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B171" s="2">
         <v>255</v>
@@ -5066,9 +5067,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B172" s="2">
         <v>34</v>
@@ -5080,9 +5081,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B173" s="2">
         <v>34</v>
@@ -5094,23 +5095,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="2">
+        <v>255</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B174" s="2">
-        <v>255</v>
-      </c>
-      <c r="C174" s="2">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="B175" s="2">
         <v>220</v>
@@ -5122,9 +5123,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B176" s="2">
         <v>248</v>
@@ -5136,9 +5137,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B177" s="2">
         <v>248</v>
@@ -5150,9 +5151,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B178" s="2">
         <v>255</v>
@@ -5164,9 +5165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B179" s="2">
         <v>255</v>
@@ -5178,9 +5179,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B180" s="2">
         <v>238</v>
@@ -5192,9 +5193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B181" s="2">
         <v>205</v>
@@ -5206,9 +5207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B182" s="2">
         <v>139</v>
@@ -5220,9 +5221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B183" s="2">
         <v>218</v>
@@ -5234,9 +5235,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B184" s="2">
         <v>255</v>
@@ -5248,9 +5249,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B185" s="2">
         <v>238</v>
@@ -5262,9 +5263,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B186" s="2">
         <v>205</v>
@@ -5276,9 +5277,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B187" s="2">
         <v>139</v>
@@ -5290,9 +5291,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B188" s="2">
         <v>128</v>
@@ -5304,23 +5305,23 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0</v>
+      </c>
+      <c r="C189" s="2">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B189" s="2">
-        <v>0</v>
-      </c>
-      <c r="C189" s="2">
-        <v>0</v>
-      </c>
-      <c r="D189" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="B190" s="2">
         <v>3</v>
@@ -5332,9 +5333,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B191" s="2">
         <v>5</v>
@@ -5346,9 +5347,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B192" s="2">
         <v>8</v>
@@ -5360,9 +5361,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193" s="2">
         <v>10</v>
@@ -5374,9 +5375,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B194" s="2">
         <v>13</v>
@@ -5388,9 +5389,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B195" s="2">
         <v>15</v>
@@ -5402,9 +5403,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B196" s="2">
         <v>18</v>
@@ -5416,9 +5417,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B197" s="2">
         <v>20</v>
@@ -5430,9 +5431,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B198" s="2">
         <v>23</v>
@@ -5444,9 +5445,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B199" s="2">
         <v>26</v>
@@ -5458,9 +5459,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B200" s="2">
         <v>28</v>
@@ -5472,9 +5473,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B201" s="2">
         <v>31</v>
@@ -5486,9 +5487,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202" s="2">
         <v>33</v>
@@ -5500,9 +5501,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B203" s="2">
         <v>36</v>
@@ -5514,9 +5515,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B204" s="2">
         <v>38</v>
@@ -5528,9 +5529,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B205" s="2">
         <v>41</v>
@@ -5542,9 +5543,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B206" s="2">
         <v>43</v>
@@ -5556,9 +5557,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B207" s="2">
         <v>46</v>
@@ -5570,9 +5571,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B208" s="2">
         <v>48</v>
@@ -5584,9 +5585,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B209" s="2">
         <v>51</v>
@@ -5598,9 +5599,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B210" s="2">
         <v>54</v>
@@ -5612,9 +5613,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B211" s="2">
         <v>56</v>
@@ -5626,9 +5627,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B212" s="2">
         <v>59</v>
@@ -5640,9 +5641,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B213" s="2">
         <v>61</v>
@@ -5654,9 +5655,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B214" s="2">
         <v>64</v>
@@ -5668,9 +5669,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B215" s="2">
         <v>66</v>
@@ -5682,9 +5683,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B216" s="2">
         <v>69</v>
@@ -5696,9 +5697,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B217" s="2">
         <v>71</v>
@@ -5710,9 +5711,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B218" s="2">
         <v>74</v>
@@ -5724,9 +5725,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B219" s="2">
         <v>77</v>
@@ -5738,9 +5739,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B220" s="2">
         <v>79</v>
@@ -5752,9 +5753,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B221" s="2">
         <v>82</v>
@@ -5766,9 +5767,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B222" s="2">
         <v>84</v>
@@ -5780,9 +5781,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B223" s="2">
         <v>87</v>
@@ -5794,9 +5795,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B224" s="2">
         <v>89</v>
@@ -5808,9 +5809,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B225" s="2">
         <v>92</v>
@@ -5822,9 +5823,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B226" s="2">
         <v>94</v>
@@ -5836,9 +5837,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B227" s="2">
         <v>97</v>
@@ -5850,9 +5851,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B228" s="2">
         <v>99</v>
@@ -5864,9 +5865,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B229" s="2">
         <v>102</v>
@@ -5878,9 +5879,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B230" s="2">
         <v>105</v>
@@ -5892,9 +5893,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B231" s="2">
         <v>107</v>
@@ -5906,9 +5907,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B232" s="2">
         <v>110</v>
@@ -5920,9 +5921,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B233" s="2">
         <v>112</v>
@@ -5934,9 +5935,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B234" s="2">
         <v>115</v>
@@ -5948,9 +5949,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B235" s="2">
         <v>117</v>
@@ -5962,9 +5963,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236" s="2">
         <v>120</v>
@@ -5976,9 +5977,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B237" s="2">
         <v>122</v>
@@ -5990,9 +5991,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B238" s="2">
         <v>125</v>
@@ -6004,9 +6005,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B239" s="2">
         <v>127</v>
@@ -6018,9 +6019,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B240" s="2">
         <v>130</v>
@@ -6032,9 +6033,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B241" s="2">
         <v>133</v>
@@ -6046,9 +6047,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B242" s="2">
         <v>135</v>
@@ -6060,9 +6061,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B243" s="2">
         <v>138</v>
@@ -6074,9 +6075,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B244" s="2">
         <v>140</v>
@@ -6088,9 +6089,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B245" s="2">
         <v>143</v>
@@ -6102,9 +6103,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B246" s="2">
         <v>145</v>
@@ -6116,9 +6117,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B247" s="2">
         <v>148</v>
@@ -6130,9 +6131,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B248" s="2">
         <v>150</v>
@@ -6144,9 +6145,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B249" s="2">
         <v>153</v>
@@ -6158,9 +6159,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B250" s="2">
         <v>156</v>
@@ -6172,9 +6173,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B251" s="2">
         <v>158</v>
@@ -6186,9 +6187,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B252" s="2">
         <v>161</v>
@@ -6200,9 +6201,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B253" s="2">
         <v>163</v>
@@ -6214,9 +6215,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B254" s="2">
         <v>166</v>
@@ -6228,9 +6229,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B255" s="2">
         <v>168</v>
@@ -6242,9 +6243,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B256" s="2">
         <v>171</v>
@@ -6256,9 +6257,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B257" s="2">
         <v>173</v>
@@ -6270,9 +6271,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B258" s="2">
         <v>176</v>
@@ -6284,9 +6285,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B259" s="2">
         <v>179</v>
@@ -6298,9 +6299,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B260" s="2">
         <v>181</v>
@@ -6312,9 +6313,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B261" s="2">
         <v>184</v>
@@ -6326,9 +6327,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B262" s="2">
         <v>186</v>
@@ -6340,9 +6341,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B263" s="2">
         <v>189</v>
@@ -6354,9 +6355,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B264" s="2">
         <v>191</v>
@@ -6368,9 +6369,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B265" s="2">
         <v>194</v>
@@ -6382,9 +6383,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B266" s="2">
         <v>196</v>
@@ -6396,9 +6397,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B267" s="2">
         <v>199</v>
@@ -6410,9 +6411,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B268" s="2">
         <v>201</v>
@@ -6424,9 +6425,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B269" s="2">
         <v>204</v>
@@ -6438,9 +6439,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B270" s="2">
         <v>207</v>
@@ -6452,9 +6453,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B271" s="2">
         <v>209</v>
@@ -6466,9 +6467,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B272" s="2">
         <v>212</v>
@@ -6480,9 +6481,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B273" s="2">
         <v>214</v>
@@ -6494,9 +6495,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B274" s="2">
         <v>217</v>
@@ -6508,9 +6509,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B275" s="2">
         <v>219</v>
@@ -6522,9 +6523,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B276" s="2">
         <v>222</v>
@@ -6536,9 +6537,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B277" s="2">
         <v>224</v>
@@ -6550,9 +6551,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B278" s="2">
         <v>227</v>
@@ -6564,9 +6565,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B279" s="2">
         <v>229</v>
@@ -6578,9 +6579,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B280" s="2">
         <v>232</v>
@@ -6592,9 +6593,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B281" s="2">
         <v>235</v>
@@ -6606,9 +6607,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B282" s="2">
         <v>237</v>
@@ -6620,9 +6621,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B283" s="2">
         <v>240</v>
@@ -6634,9 +6635,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B284" s="2">
         <v>242</v>
@@ -6648,9 +6649,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B285" s="2">
         <v>245</v>
@@ -6662,9 +6663,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B286" s="2">
         <v>247</v>
@@ -6676,9 +6677,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B287" s="2">
         <v>250</v>
@@ -6690,9 +6691,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B288" s="2">
         <v>252</v>
@@ -6704,23 +6705,23 @@
         <v>252</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" s="2">
+        <v>255</v>
+      </c>
+      <c r="C289" s="2">
+        <v>255</v>
+      </c>
+      <c r="D289" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B289" s="2">
-        <v>255</v>
-      </c>
-      <c r="C289" s="2">
-        <v>255</v>
-      </c>
-      <c r="D289" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="B290" s="2">
         <v>0</v>
@@ -6732,9 +6733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B291" s="2">
         <v>173</v>
@@ -6746,23 +6747,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" s="2">
+        <v>0</v>
+      </c>
+      <c r="C292" s="2">
+        <v>255</v>
+      </c>
+      <c r="D292" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B292" s="2">
-        <v>0</v>
-      </c>
-      <c r="C292" s="2">
-        <v>255</v>
-      </c>
-      <c r="D292" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="B293" s="2">
         <v>0</v>
@@ -6774,9 +6775,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B294" s="2">
         <v>0</v>
@@ -6788,9 +6789,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B295" s="2">
         <v>0</v>
@@ -6802,9 +6803,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B296" s="2">
         <v>173</v>
@@ -6816,9 +6817,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B297" s="2">
         <v>128</v>
@@ -6830,23 +6831,23 @@
         <v>128</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298" s="2">
+        <v>0</v>
+      </c>
+      <c r="C298" s="2">
+        <v>0</v>
+      </c>
+      <c r="D298" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B298" s="2">
-        <v>0</v>
-      </c>
-      <c r="C298" s="2">
-        <v>0</v>
-      </c>
-      <c r="D298" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="B299" s="2">
         <v>3</v>
@@ -6858,9 +6859,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B300" s="2">
         <v>5</v>
@@ -6872,9 +6873,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B301" s="2">
         <v>8</v>
@@ -6886,9 +6887,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B302" s="2">
         <v>10</v>
@@ -6900,9 +6901,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B303" s="2">
         <v>13</v>
@@ -6914,9 +6915,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B304" s="2">
         <v>15</v>
@@ -6928,9 +6929,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B305" s="2">
         <v>18</v>
@@ -6942,9 +6943,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B306" s="2">
         <v>20</v>
@@ -6956,9 +6957,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B307" s="2">
         <v>23</v>
@@ -6970,9 +6971,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B308" s="2">
         <v>26</v>
@@ -6984,9 +6985,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B309" s="2">
         <v>28</v>
@@ -6998,9 +6999,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B310" s="2">
         <v>31</v>
@@ -7012,9 +7013,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B311" s="2">
         <v>33</v>
@@ -7026,9 +7027,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B312" s="2">
         <v>36</v>
@@ -7040,9 +7041,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B313" s="2">
         <v>38</v>
@@ -7054,9 +7055,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B314" s="2">
         <v>41</v>
@@ -7068,9 +7069,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B315" s="2">
         <v>43</v>
@@ -7082,9 +7083,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B316" s="2">
         <v>46</v>
@@ -7096,9 +7097,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B317" s="2">
         <v>48</v>
@@ -7110,9 +7111,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B318" s="2">
         <v>51</v>
@@ -7124,9 +7125,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B319" s="2">
         <v>54</v>
@@ -7138,9 +7139,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B320" s="2">
         <v>56</v>
@@ -7152,9 +7153,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B321" s="2">
         <v>59</v>
@@ -7166,9 +7167,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B322" s="2">
         <v>61</v>
@@ -7180,9 +7181,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B323" s="2">
         <v>64</v>
@@ -7194,9 +7195,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B324" s="2">
         <v>66</v>
@@ -7208,9 +7209,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B325" s="2">
         <v>69</v>
@@ -7222,9 +7223,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B326" s="2">
         <v>71</v>
@@ -7236,9 +7237,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B327" s="2">
         <v>74</v>
@@ -7250,9 +7251,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B328" s="2">
         <v>77</v>
@@ -7264,9 +7265,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B329" s="2">
         <v>79</v>
@@ -7278,9 +7279,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B330" s="2">
         <v>82</v>
@@ -7292,9 +7293,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B331" s="2">
         <v>84</v>
@@ -7306,9 +7307,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B332" s="2">
         <v>87</v>
@@ -7320,9 +7321,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B333" s="2">
         <v>89</v>
@@ -7334,9 +7335,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B334" s="2">
         <v>92</v>
@@ -7348,9 +7349,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B335" s="2">
         <v>94</v>
@@ -7362,9 +7363,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B336" s="2">
         <v>97</v>
@@ -7376,9 +7377,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B337" s="2">
         <v>99</v>
@@ -7390,9 +7391,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B338" s="2">
         <v>102</v>
@@ -7404,9 +7405,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B339" s="2">
         <v>105</v>
@@ -7418,9 +7419,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B340" s="2">
         <v>107</v>
@@ -7432,9 +7433,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B341" s="2">
         <v>110</v>
@@ -7446,9 +7447,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B342" s="2">
         <v>112</v>
@@ -7460,9 +7461,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B343" s="2">
         <v>115</v>
@@ -7474,9 +7475,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B344" s="2">
         <v>117</v>
@@ -7488,9 +7489,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B345" s="2">
         <v>120</v>
@@ -7502,9 +7503,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B346" s="2">
         <v>122</v>
@@ -7516,9 +7517,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B347" s="2">
         <v>125</v>
@@ -7530,9 +7531,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B348" s="2">
         <v>127</v>
@@ -7544,9 +7545,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B349" s="2">
         <v>130</v>
@@ -7558,9 +7559,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B350" s="2">
         <v>133</v>
@@ -7572,9 +7573,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B351" s="2">
         <v>135</v>
@@ -7586,9 +7587,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B352" s="2">
         <v>138</v>
@@ -7600,9 +7601,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B353" s="2">
         <v>140</v>
@@ -7614,9 +7615,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B354" s="2">
         <v>143</v>
@@ -7628,9 +7629,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B355" s="2">
         <v>145</v>
@@ -7642,9 +7643,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B356" s="2">
         <v>148</v>
@@ -7656,9 +7657,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B357" s="2">
         <v>150</v>
@@ -7670,9 +7671,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B358" s="2">
         <v>153</v>
@@ -7684,9 +7685,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B359" s="2">
         <v>156</v>
@@ -7698,9 +7699,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B360" s="2">
         <v>158</v>
@@ -7712,9 +7713,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B361" s="2">
         <v>161</v>
@@ -7726,9 +7727,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B362" s="2">
         <v>163</v>
@@ -7740,9 +7741,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B363" s="2">
         <v>166</v>
@@ -7754,9 +7755,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B364" s="2">
         <v>168</v>
@@ -7768,9 +7769,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B365" s="2">
         <v>171</v>
@@ -7782,9 +7783,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B366" s="2">
         <v>173</v>
@@ -7796,9 +7797,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B367" s="2">
         <v>176</v>
@@ -7810,9 +7811,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B368" s="2">
         <v>179</v>
@@ -7824,9 +7825,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B369" s="2">
         <v>181</v>
@@ -7838,9 +7839,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B370" s="2">
         <v>184</v>
@@ -7852,9 +7853,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B371" s="2">
         <v>186</v>
@@ -7866,9 +7867,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B372" s="2">
         <v>189</v>
@@ -7880,9 +7881,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B373" s="2">
         <v>191</v>
@@ -7894,9 +7895,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B374" s="2">
         <v>194</v>
@@ -7908,9 +7909,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B375" s="2">
         <v>196</v>
@@ -7922,9 +7923,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B376" s="2">
         <v>199</v>
@@ -7936,9 +7937,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B377" s="2">
         <v>201</v>
@@ -7950,9 +7951,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B378" s="2">
         <v>204</v>
@@ -7964,9 +7965,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B379" s="2">
         <v>207</v>
@@ -7978,9 +7979,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B380" s="2">
         <v>209</v>
@@ -7992,9 +7993,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B381" s="2">
         <v>212</v>
@@ -8006,9 +8007,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B382" s="2">
         <v>214</v>
@@ -8020,9 +8021,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B383" s="2">
         <v>217</v>
@@ -8034,9 +8035,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B384" s="2">
         <v>219</v>
@@ -8048,9 +8049,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B385" s="2">
         <v>222</v>
@@ -8062,9 +8063,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B386" s="2">
         <v>224</v>
@@ -8076,9 +8077,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B387" s="2">
         <v>227</v>
@@ -8090,9 +8091,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B388" s="2">
         <v>229</v>
@@ -8104,9 +8105,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B389" s="2">
         <v>232</v>
@@ -8118,9 +8119,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B390" s="2">
         <v>235</v>
@@ -8132,9 +8133,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B391" s="2">
         <v>237</v>
@@ -8146,9 +8147,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B392" s="2">
         <v>240</v>
@@ -8160,9 +8161,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B393" s="2">
         <v>242</v>
@@ -8174,9 +8175,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B394" s="2">
         <v>245</v>
@@ -8188,9 +8189,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B395" s="2">
         <v>247</v>
@@ -8202,9 +8203,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B396" s="2">
         <v>250</v>
@@ -8216,9 +8217,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B397" s="2">
         <v>252</v>
@@ -8230,23 +8231,23 @@
         <v>252</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B398" s="2">
+        <v>255</v>
+      </c>
+      <c r="C398" s="2">
+        <v>255</v>
+      </c>
+      <c r="D398" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B398" s="2">
-        <v>255</v>
-      </c>
-      <c r="C398" s="2">
-        <v>255</v>
-      </c>
-      <c r="D398" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A399" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="B399" s="2">
         <v>240</v>
@@ -8258,9 +8259,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B400" s="2">
         <v>240</v>
@@ -8272,9 +8273,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B401" s="2">
         <v>224</v>
@@ -8286,9 +8287,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B402" s="2">
         <v>193</v>
@@ -8300,9 +8301,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B403" s="2">
         <v>131</v>
@@ -8314,9 +8315,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B404" s="2">
         <v>255</v>
@@ -8328,9 +8329,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B405" s="2">
         <v>255</v>
@@ -8342,9 +8343,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B406" s="2">
         <v>255</v>
@@ -8356,9 +8357,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B407" s="2">
         <v>238</v>
@@ -8370,9 +8371,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B408" s="2">
         <v>205</v>
@@ -8384,9 +8385,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B409" s="2">
         <v>139</v>
@@ -8398,9 +8399,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B410" s="2">
         <v>205</v>
@@ -8412,9 +8413,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B411" s="2">
         <v>205</v>
@@ -8426,9 +8427,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B412" s="2">
         <v>255</v>
@@ -8440,9 +8441,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B413" s="2">
         <v>238</v>
@@ -8454,9 +8455,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B414" s="2">
         <v>205</v>
@@ -8468,9 +8469,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B415" s="2">
         <v>139</v>
@@ -8482,9 +8483,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B416" s="2">
         <v>75</v>
@@ -8496,9 +8497,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B417" s="2">
         <v>255</v>
@@ -8510,9 +8511,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B418" s="2">
         <v>255</v>
@@ -8524,9 +8525,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B419" s="2">
         <v>238</v>
@@ -8538,9 +8539,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B420" s="2">
         <v>205</v>
@@ -8552,9 +8553,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B421" s="2">
         <v>139</v>
@@ -8566,9 +8567,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B422" s="2">
         <v>240</v>
@@ -8580,9 +8581,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B423" s="2">
         <v>255</v>
@@ -8594,9 +8595,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B424" s="2">
         <v>238</v>
@@ -8608,9 +8609,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B425" s="2">
         <v>205</v>
@@ -8622,9 +8623,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B426" s="2">
         <v>139</v>
@@ -8636,9 +8637,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B427" s="2">
         <v>230</v>
@@ -8650,9 +8651,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B428" s="2">
         <v>255</v>
@@ -8664,9 +8665,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B429" s="2">
         <v>255</v>
@@ -8678,9 +8679,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B430" s="2">
         <v>255</v>
@@ -8692,9 +8693,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B431" s="2">
         <v>238</v>
@@ -8706,9 +8707,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B432" s="2">
         <v>205</v>
@@ -8720,9 +8721,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B433" s="2">
         <v>139</v>
@@ -8734,9 +8735,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B434" s="2">
         <v>124</v>
@@ -8748,9 +8749,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B435" s="2">
         <v>124</v>
@@ -8762,9 +8763,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B436" s="2">
         <v>255</v>
@@ -8776,9 +8777,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B437" s="2">
         <v>255</v>
@@ -8790,9 +8791,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B438" s="2">
         <v>255</v>
@@ -8804,9 +8805,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B439" s="2">
         <v>238</v>
@@ -8818,9 +8819,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B440" s="2">
         <v>205</v>
@@ -8832,9 +8833,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B441" s="2">
         <v>139</v>
@@ -8846,9 +8847,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B442" s="2">
         <v>173</v>
@@ -8860,9 +8861,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B443" s="2">
         <v>240</v>
@@ -8874,9 +8875,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B444" s="2">
         <v>224</v>
@@ -8888,9 +8889,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B445" s="2">
         <v>238</v>
@@ -8902,9 +8903,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B446" s="2">
         <v>250</v>
@@ -8916,9 +8917,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B447" s="2">
         <v>211</v>
@@ -8930,9 +8931,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B448" s="2">
         <v>144</v>
@@ -8944,9 +8945,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B449" s="2">
         <v>211</v>
@@ -8958,9 +8959,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B450" s="2">
         <v>255</v>
@@ -8972,9 +8973,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B451" s="2">
         <v>255</v>
@@ -8986,9 +8987,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B452" s="2">
         <v>32</v>
@@ -9000,9 +9001,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B453" s="2">
         <v>135</v>
@@ -9014,9 +9015,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B454" s="2">
         <v>132</v>
@@ -9028,9 +9029,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B455" s="2">
         <v>119</v>
@@ -9042,9 +9043,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B456" s="2">
         <v>119</v>
@@ -9056,9 +9057,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B457" s="2">
         <v>176</v>
@@ -9070,9 +9071,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B458" s="2">
         <v>255</v>
@@ -9084,9 +9085,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B459" s="2">
         <v>173</v>
@@ -9098,9 +9099,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B460" s="2">
         <v>191</v>
@@ -9112,9 +9113,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B461" s="2">
         <v>178</v>
@@ -9126,9 +9127,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B462" s="2">
         <v>154</v>
@@ -9140,9 +9141,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B463" s="2">
         <v>104</v>
@@ -9154,9 +9155,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B464" s="2">
         <v>240</v>
@@ -9168,9 +9169,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B465" s="2">
         <v>224</v>
@@ -9182,9 +9183,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B466" s="2">
         <v>224</v>
@@ -9196,9 +9197,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B467" s="2">
         <v>209</v>
@@ -9210,9 +9211,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B468" s="2">
         <v>180</v>
@@ -9224,9 +9225,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B469" s="2">
         <v>122</v>
@@ -9238,9 +9239,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B470" s="2">
         <v>238</v>
@@ -9252,9 +9253,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B471" s="2">
         <v>255</v>
@@ -9266,9 +9267,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B472" s="2">
         <v>238</v>
@@ -9280,9 +9281,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B473" s="2">
         <v>205</v>
@@ -9294,9 +9295,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B474" s="2">
         <v>139</v>
@@ -9308,9 +9309,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B475" s="2">
         <v>250</v>
@@ -9322,9 +9323,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B476" s="2">
         <v>211</v>
@@ -9336,9 +9337,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B477" s="2">
         <v>144</v>
@@ -9350,9 +9351,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B478" s="2">
         <v>211</v>
@@ -9364,9 +9365,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B479" s="2">
         <v>255</v>
@@ -9378,9 +9379,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B480" s="2">
         <v>255</v>
@@ -9392,9 +9393,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B481" s="2">
         <v>238</v>
@@ -9406,9 +9407,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B482" s="2">
         <v>205</v>
@@ -9420,9 +9421,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B483" s="2">
         <v>139</v>
@@ -9434,9 +9435,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B484" s="2">
         <v>255</v>
@@ -9448,9 +9449,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B485" s="2">
         <v>255</v>
@@ -9462,9 +9463,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B486" s="2">
         <v>238</v>
@@ -9476,9 +9477,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B487" s="2">
         <v>205</v>
@@ -9490,9 +9491,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B488" s="2">
         <v>139</v>
@@ -9504,9 +9505,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B489" s="2">
         <v>32</v>
@@ -9518,9 +9519,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B490" s="2">
         <v>135</v>
@@ -9532,9 +9533,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B491" s="2">
         <v>176</v>
@@ -9546,9 +9547,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B492" s="2">
         <v>164</v>
@@ -9560,9 +9561,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B493" s="2">
         <v>141</v>
@@ -9574,9 +9575,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B494" s="2">
         <v>96</v>
@@ -9588,9 +9589,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B495" s="2">
         <v>132</v>
@@ -9602,9 +9603,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B496" s="2">
         <v>119</v>
@@ -9616,9 +9617,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B497" s="2">
         <v>119</v>
@@ -9630,9 +9631,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B498" s="2">
         <v>176</v>
@@ -9644,9 +9645,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B499" s="2">
         <v>202</v>
@@ -9658,9 +9659,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B500" s="2">
         <v>188</v>
@@ -9672,9 +9673,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B501" s="2">
         <v>162</v>
@@ -9686,9 +9687,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B502" s="2">
         <v>110</v>
@@ -9700,9 +9701,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B503" s="2">
         <v>255</v>
@@ -9714,9 +9715,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B504" s="2">
         <v>255</v>
@@ -9728,9 +9729,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B505" s="2">
         <v>238</v>
@@ -9742,9 +9743,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B506" s="2">
         <v>205</v>
@@ -9756,9 +9757,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B507" s="2">
         <v>139</v>
@@ -9770,23 +9771,23 @@
         <v>122</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B508" s="2">
+        <v>0</v>
+      </c>
+      <c r="C508" s="2">
+        <v>255</v>
+      </c>
+      <c r="D508" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="B508" s="2">
-        <v>0</v>
-      </c>
-      <c r="C508" s="2">
-        <v>255</v>
-      </c>
-      <c r="D508" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A509" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="B509" s="2">
         <v>50</v>
@@ -9798,9 +9799,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B510" s="2">
         <v>50</v>
@@ -9812,9 +9813,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B511" s="2">
         <v>250</v>
@@ -9826,37 +9827,37 @@
         <v>230</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B512" s="2">
+        <v>255</v>
+      </c>
+      <c r="C512" s="2">
+        <v>0</v>
+      </c>
+      <c r="D512" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B512" s="2">
-        <v>255</v>
-      </c>
-      <c r="C512" s="2">
-        <v>0</v>
-      </c>
-      <c r="D512" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A513" s="2" t="s">
+      <c r="B513" s="2">
+        <v>255</v>
+      </c>
+      <c r="C513" s="2">
+        <v>0</v>
+      </c>
+      <c r="D513" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="B513" s="2">
-        <v>255</v>
-      </c>
-      <c r="C513" s="2">
-        <v>0</v>
-      </c>
-      <c r="D513" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A514" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="B514" s="2">
         <v>238</v>
@@ -9868,9 +9869,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B515" s="2">
         <v>205</v>
@@ -9882,9 +9883,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B516" s="2">
         <v>139</v>
@@ -9896,9 +9897,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B517" s="2">
         <v>128</v>
@@ -9910,9 +9911,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B518" s="2">
         <v>255</v>
@@ -9924,9 +9925,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B519" s="2">
         <v>238</v>
@@ -9938,9 +9939,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B520" s="2">
         <v>205</v>
@@ -9952,9 +9953,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B521" s="2">
         <v>139</v>
@@ -9966,9 +9967,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B522" s="2">
         <v>102</v>
@@ -9980,9 +9981,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B523" s="2">
         <v>0</v>
@@ -9994,9 +9995,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B524" s="2">
         <v>186</v>
@@ -10008,9 +10009,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B525" s="2">
         <v>147</v>
@@ -10022,9 +10023,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B526" s="2">
         <v>60</v>
@@ -10036,9 +10037,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B527" s="2">
         <v>123</v>
@@ -10050,9 +10051,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B528" s="2">
         <v>0</v>
@@ -10064,9 +10065,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B529" s="2">
         <v>72</v>
@@ -10078,9 +10079,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B530" s="2">
         <v>199</v>
@@ -10092,9 +10093,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B531" s="2">
         <v>102</v>
@@ -10106,9 +10107,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B532" s="2">
         <v>0</v>
@@ -10120,9 +10121,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B533" s="2">
         <v>186</v>
@@ -10134,9 +10135,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B534" s="2">
         <v>224</v>
@@ -10148,9 +10149,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B535" s="2">
         <v>209</v>
@@ -10162,9 +10163,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B536" s="2">
         <v>180</v>
@@ -10176,9 +10177,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B537" s="2">
         <v>122</v>
@@ -10190,9 +10191,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B538" s="2">
         <v>147</v>
@@ -10204,9 +10205,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B539" s="2">
         <v>171</v>
@@ -10218,9 +10219,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B540" s="2">
         <v>159</v>
@@ -10232,9 +10233,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B541" s="2">
         <v>137</v>
@@ -10246,9 +10247,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B542" s="2">
         <v>93</v>
@@ -10260,9 +10261,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B543" s="2">
         <v>60</v>
@@ -10274,9 +10275,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B544" s="2">
         <v>123</v>
@@ -10288,9 +10289,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B545" s="2">
         <v>0</v>
@@ -10302,9 +10303,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B546" s="2">
         <v>72</v>
@@ -10316,9 +10317,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B547" s="2">
         <v>199</v>
@@ -10330,9 +10331,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B548" s="2">
         <v>25</v>
@@ -10344,9 +10345,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B549" s="2">
         <v>25</v>
@@ -10358,9 +10359,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B550" s="2">
         <v>245</v>
@@ -10372,9 +10373,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B551" s="2">
         <v>245</v>
@@ -10386,9 +10387,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B552" s="2">
         <v>255</v>
@@ -10400,9 +10401,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B553" s="2">
         <v>255</v>
@@ -10414,9 +10415,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B554" s="2">
         <v>255</v>
@@ -10428,9 +10429,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B555" s="2">
         <v>238</v>
@@ -10442,9 +10443,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B556" s="2">
         <v>205</v>
@@ -10456,9 +10457,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B557" s="2">
         <v>139</v>
@@ -10470,9 +10471,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B558" s="2">
         <v>255</v>
@@ -10484,9 +10485,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B559" s="2">
         <v>255</v>
@@ -10498,9 +10499,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B560" s="2">
         <v>255</v>
@@ -10512,9 +10513,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B561" s="2">
         <v>255</v>
@@ -10526,9 +10527,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B562" s="2">
         <v>238</v>
@@ -10540,9 +10541,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B563" s="2">
         <v>205</v>
@@ -10554,9 +10555,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B564" s="2">
         <v>139</v>
@@ -10568,9 +10569,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B565" s="2">
         <v>0</v>
@@ -10582,9 +10583,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B566" s="2">
         <v>0</v>
@@ -10596,9 +10597,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B567" s="2">
         <v>0</v>
@@ -10610,9 +10611,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B568" s="2">
         <v>253</v>
@@ -10624,9 +10625,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B569" s="2">
         <v>253</v>
@@ -10638,9 +10639,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B570" s="2">
         <v>128</v>
@@ -10652,9 +10653,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B571" s="2">
         <v>107</v>
@@ -10666,9 +10667,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B572" s="2">
         <v>107</v>
@@ -10680,9 +10681,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B573" s="2">
         <v>192</v>
@@ -10694,9 +10695,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B574" s="2">
         <v>179</v>
@@ -10708,9 +10709,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B575" s="2">
         <v>154</v>
@@ -10722,9 +10723,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B576" s="2">
         <v>105</v>
@@ -10736,9 +10737,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B577" s="2">
         <v>255</v>
@@ -10750,9 +10751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B578" s="2">
         <v>255</v>
@@ -10764,9 +10765,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B579" s="2">
         <v>255</v>
@@ -10778,9 +10779,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B580" s="2">
         <v>238</v>
@@ -10792,9 +10793,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B581" s="2">
         <v>205</v>
@@ -10806,9 +10807,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B582" s="2">
         <v>139</v>
@@ -10820,9 +10821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B583" s="2">
         <v>255</v>
@@ -10834,9 +10835,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B584" s="2">
         <v>255</v>
@@ -10848,9 +10849,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B585" s="2">
         <v>238</v>
@@ -10862,9 +10863,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B586" s="2">
         <v>205</v>
@@ -10876,9 +10877,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B587" s="2">
         <v>139</v>
@@ -10890,9 +10891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B588" s="2">
         <v>218</v>
@@ -10904,9 +10905,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B589" s="2">
         <v>255</v>
@@ -10918,9 +10919,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B590" s="2">
         <v>238</v>
@@ -10932,9 +10933,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B591" s="2">
         <v>205</v>
@@ -10946,9 +10947,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B592" s="2">
         <v>139</v>
@@ -10960,9 +10961,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B593" s="2">
         <v>238</v>
@@ -10974,9 +10975,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B594" s="2">
         <v>152</v>
@@ -10988,9 +10989,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B595" s="2">
         <v>175</v>
@@ -11002,9 +11003,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B596" s="2">
         <v>219</v>
@@ -11016,9 +11017,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B597" s="2">
         <v>238</v>
@@ -11030,9 +11031,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B598" s="2">
         <v>152</v>
@@ -11044,9 +11045,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B599" s="2">
         <v>154</v>
@@ -11058,9 +11059,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B600" s="2">
         <v>144</v>
@@ -11072,9 +11073,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B601" s="2">
         <v>124</v>
@@ -11086,9 +11087,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B602" s="2">
         <v>84</v>
@@ -11100,9 +11101,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B603" s="2">
         <v>175</v>
@@ -11114,9 +11115,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B604" s="2">
         <v>187</v>
@@ -11128,9 +11129,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B605" s="2">
         <v>174</v>
@@ -11142,9 +11143,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B606" s="2">
         <v>150</v>
@@ -11156,9 +11157,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B607" s="2">
         <v>102</v>
@@ -11170,9 +11171,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B608" s="2">
         <v>219</v>
@@ -11184,9 +11185,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B609" s="2">
         <v>255</v>
@@ -11198,9 +11199,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B610" s="2">
         <v>238</v>
@@ -11212,9 +11213,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B611" s="2">
         <v>205</v>
@@ -11226,9 +11227,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B612" s="2">
         <v>139</v>
@@ -11240,9 +11241,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B613" s="2">
         <v>255</v>
@@ -11254,9 +11255,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B614" s="2">
         <v>255</v>
@@ -11268,9 +11269,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B615" s="2">
         <v>255</v>
@@ -11282,9 +11283,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B616" s="2">
         <v>255</v>
@@ -11296,9 +11297,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B617" s="2">
         <v>255</v>
@@ -11310,9 +11311,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B618" s="2">
         <v>238</v>
@@ -11324,9 +11325,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B619" s="2">
         <v>205</v>
@@ -11338,9 +11339,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B620" s="2">
         <v>139</v>
@@ -11352,9 +11353,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B621" s="2">
         <v>205</v>
@@ -11366,9 +11367,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B622" s="2">
         <v>255</v>
@@ -11380,9 +11381,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B623" s="2">
         <v>255</v>
@@ -11394,9 +11395,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B624" s="2">
         <v>238</v>
@@ -11408,9 +11409,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B625" s="2">
         <v>205</v>
@@ -11422,9 +11423,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B626" s="2">
         <v>139</v>
@@ -11436,9 +11437,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B627" s="2">
         <v>221</v>
@@ -11450,9 +11451,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B628" s="2">
         <v>255</v>
@@ -11464,9 +11465,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B629" s="2">
         <v>238</v>
@@ -11478,9 +11479,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B630" s="2">
         <v>205</v>
@@ -11492,9 +11493,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B631" s="2">
         <v>139</v>
@@ -11506,9 +11507,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B632" s="2">
         <v>176</v>
@@ -11520,9 +11521,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B633" s="2">
         <v>176</v>
@@ -11534,9 +11535,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B634" s="2">
         <v>128</v>
@@ -11548,9 +11549,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B635" s="2">
         <v>155</v>
@@ -11562,9 +11563,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B636" s="2">
         <v>145</v>
@@ -11576,9 +11577,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B637" s="2">
         <v>125</v>
@@ -11590,9 +11591,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B638" s="2">
         <v>85</v>
@@ -11604,37 +11605,37 @@
         <v>139</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B639" s="2">
+        <v>255</v>
+      </c>
+      <c r="C639" s="2">
+        <v>0</v>
+      </c>
+      <c r="D639" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B639" s="2">
-        <v>255</v>
-      </c>
-      <c r="C639" s="2">
-        <v>0</v>
-      </c>
-      <c r="D639" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A640" s="2" t="s">
+      <c r="B640" s="2">
+        <v>255</v>
+      </c>
+      <c r="C640" s="2">
+        <v>0</v>
+      </c>
+      <c r="D640" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="B640" s="2">
-        <v>255</v>
-      </c>
-      <c r="C640" s="2">
-        <v>0</v>
-      </c>
-      <c r="D640" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A641" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="B641" s="2">
         <v>238</v>
@@ -11646,9 +11647,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B642" s="2">
         <v>205</v>
@@ -11660,9 +11661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B643" s="2">
         <v>139</v>
@@ -11674,9 +11675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B644" s="2">
         <v>188</v>
@@ -11688,9 +11689,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B645" s="2">
         <v>188</v>
@@ -11702,9 +11703,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B646" s="2">
         <v>255</v>
@@ -11716,9 +11717,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B647" s="2">
         <v>238</v>
@@ -11730,9 +11731,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B648" s="2">
         <v>205</v>
@@ -11744,9 +11745,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B649" s="2">
         <v>139</v>
@@ -11758,9 +11759,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B650" s="2">
         <v>65</v>
@@ -11772,9 +11773,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B651" s="2">
         <v>65</v>
@@ -11786,9 +11787,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B652" s="2">
         <v>72</v>
@@ -11800,9 +11801,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B653" s="2">
         <v>67</v>
@@ -11814,9 +11815,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B654" s="2">
         <v>58</v>
@@ -11828,9 +11829,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B655" s="2">
         <v>39</v>
@@ -11842,9 +11843,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B656" s="2">
         <v>139</v>
@@ -11856,9 +11857,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B657" s="2">
         <v>139</v>
@@ -11870,9 +11871,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B658" s="2">
         <v>250</v>
@@ -11884,9 +11885,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B659" s="2">
         <v>255</v>
@@ -11898,9 +11899,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B660" s="2">
         <v>238</v>
@@ -11912,9 +11913,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B661" s="2">
         <v>205</v>
@@ -11926,9 +11927,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B662" s="2">
         <v>139</v>
@@ -11940,9 +11941,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B663" s="2">
         <v>244</v>
@@ -11954,9 +11955,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B664" s="2">
         <v>244</v>
@@ -11968,9 +11969,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B665" s="2">
         <v>46</v>
@@ -11982,9 +11983,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B666" s="2">
         <v>46</v>
@@ -11996,9 +11997,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B667" s="2">
         <v>84</v>
@@ -12010,9 +12011,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B668" s="2">
         <v>78</v>
@@ -12024,9 +12025,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B669" s="2">
         <v>67</v>
@@ -12038,9 +12039,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B670" s="2">
         <v>46</v>
@@ -12052,9 +12053,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B671" s="2">
         <v>255</v>
@@ -12066,9 +12067,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B672" s="2">
         <v>255</v>
@@ -12080,9 +12081,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B673" s="2">
         <v>238</v>
@@ -12094,9 +12095,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B674" s="2">
         <v>205</v>
@@ -12108,9 +12109,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B675" s="2">
         <v>139</v>
@@ -12122,9 +12123,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B676" s="2">
         <v>160</v>
@@ -12136,9 +12137,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B677" s="2">
         <v>255</v>
@@ -12150,9 +12151,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B678" s="2">
         <v>238</v>
@@ -12164,9 +12165,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B679" s="2">
         <v>205</v>
@@ -12178,9 +12179,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B680" s="2">
         <v>139</v>
@@ -12192,9 +12193,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B681" s="2">
         <v>192</v>
@@ -12206,9 +12207,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B682" s="2">
         <v>135</v>
@@ -12220,9 +12221,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B683" s="2">
         <v>135</v>
@@ -12234,9 +12235,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B684" s="2">
         <v>135</v>
@@ -12248,9 +12249,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B685" s="2">
         <v>126</v>
@@ -12262,9 +12263,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B686" s="2">
         <v>108</v>
@@ -12276,9 +12277,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B687" s="2">
         <v>74</v>
@@ -12290,9 +12291,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B688" s="2">
         <v>106</v>
@@ -12304,9 +12305,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B689" s="2">
         <v>112</v>
@@ -12318,9 +12319,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B690" s="2">
         <v>112</v>
@@ -12332,9 +12333,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B691" s="2">
         <v>106</v>
@@ -12346,9 +12347,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B692" s="2">
         <v>131</v>
@@ -12360,9 +12361,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B693" s="2">
         <v>122</v>
@@ -12374,9 +12375,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B694" s="2">
         <v>105</v>
@@ -12388,9 +12389,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B695" s="2">
         <v>71</v>
@@ -12402,9 +12403,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B696" s="2">
         <v>112</v>
@@ -12416,9 +12417,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B697" s="2">
         <v>198</v>
@@ -12430,9 +12431,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B698" s="2">
         <v>185</v>
@@ -12444,9 +12445,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B699" s="2">
         <v>159</v>
@@ -12458,9 +12459,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B700" s="2">
         <v>108</v>
@@ -12472,9 +12473,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B701" s="2">
         <v>112</v>
@@ -12486,9 +12487,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B702" s="2">
         <v>255</v>
@@ -12500,9 +12501,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B703" s="2">
         <v>255</v>
@@ -12514,9 +12515,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B704" s="2">
         <v>238</v>
@@ -12528,9 +12529,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B705" s="2">
         <v>205</v>
@@ -12542,9 +12543,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B706" s="2">
         <v>139</v>
@@ -12556,9 +12557,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B707" s="2">
         <v>0</v>
@@ -12570,9 +12571,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B708" s="2">
         <v>0</v>
@@ -12584,9 +12585,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B709" s="2">
         <v>0</v>
@@ -12598,9 +12599,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B710" s="2">
         <v>0</v>
@@ -12612,9 +12613,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B711" s="2">
         <v>0</v>
@@ -12626,9 +12627,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B712" s="2">
         <v>0</v>
@@ -12640,9 +12641,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B713" s="2">
         <v>70</v>
@@ -12654,9 +12655,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B714" s="2">
         <v>70</v>
@@ -12668,9 +12669,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B715" s="2">
         <v>99</v>
@@ -12682,9 +12683,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B716" s="2">
         <v>92</v>
@@ -12696,9 +12697,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B717" s="2">
         <v>79</v>
@@ -12710,9 +12711,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B718" s="2">
         <v>54</v>
@@ -12724,9 +12725,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B719" s="2">
         <v>210</v>
@@ -12738,9 +12739,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B720" s="2">
         <v>255</v>
@@ -12752,9 +12753,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B721" s="2">
         <v>238</v>
@@ -12766,9 +12767,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B722" s="2">
         <v>205</v>
@@ -12780,9 +12781,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B723" s="2">
         <v>139</v>
@@ -12794,9 +12795,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B724" s="2">
         <v>0</v>
@@ -12808,9 +12809,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B725" s="2">
         <v>216</v>
@@ -12822,9 +12823,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B726" s="2">
         <v>255</v>
@@ -12836,9 +12837,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B727" s="2">
         <v>238</v>
@@ -12850,9 +12851,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B728" s="2">
         <v>205</v>
@@ -12864,9 +12865,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B729" s="2">
         <v>139</v>
@@ -12878,9 +12879,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B730" s="2">
         <v>255</v>
@@ -12892,9 +12893,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B731" s="2">
         <v>255</v>
@@ -12906,9 +12907,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B732" s="2">
         <v>238</v>
@@ -12920,9 +12921,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B733" s="2">
         <v>205</v>
@@ -12934,9 +12935,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B734" s="2">
         <v>139</v>
@@ -12948,9 +12949,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B735" s="2">
         <v>64</v>
@@ -12962,9 +12963,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B736" s="2">
         <v>0</v>
@@ -12976,9 +12977,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B737" s="2">
         <v>0</v>
@@ -12990,9 +12991,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B738" s="2">
         <v>0</v>
@@ -13004,9 +13005,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B739" s="2">
         <v>0</v>
@@ -13018,9 +13019,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B740" s="2">
         <v>238</v>
@@ -13032,9 +13033,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B741" s="2">
         <v>208</v>
@@ -13046,9 +13047,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B742" s="2">
         <v>208</v>
@@ -13060,9 +13061,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B743" s="2">
         <v>255</v>
@@ -13074,9 +13075,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B744" s="2">
         <v>238</v>
@@ -13088,9 +13089,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B745" s="2">
         <v>205</v>
@@ -13102,9 +13103,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B746" s="2">
         <v>139</v>
@@ -13116,9 +13117,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B747" s="2">
         <v>245</v>
@@ -13130,9 +13131,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B748" s="2">
         <v>255</v>
@@ -13144,9 +13145,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B749" s="2">
         <v>238</v>
@@ -13158,9 +13159,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B750" s="2">
         <v>205</v>
@@ -13172,9 +13173,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B751" s="2">
         <v>139</v>
@@ -13186,23 +13187,23 @@
         <v>102</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B752" s="2">
+        <v>255</v>
+      </c>
+      <c r="C752" s="2">
+        <v>255</v>
+      </c>
+      <c r="D752" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="B752" s="2">
-        <v>255</v>
-      </c>
-      <c r="C752" s="2">
-        <v>255</v>
-      </c>
-      <c r="D752" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A753" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="B753" s="2">
         <v>245</v>
@@ -13214,9 +13215,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B754" s="2">
         <v>245</v>
@@ -13228,23 +13229,23 @@
         <v>245</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B755" s="2">
+        <v>255</v>
+      </c>
+      <c r="C755" s="2">
+        <v>255</v>
+      </c>
+      <c r="D755" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="B755" s="2">
-        <v>255</v>
-      </c>
-      <c r="C755" s="2">
-        <v>255</v>
-      </c>
-      <c r="D755" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A756" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="B756" s="2">
         <v>154</v>
@@ -13256,23 +13257,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B757" s="2">
+        <v>255</v>
+      </c>
+      <c r="C757" s="2">
+        <v>255</v>
+      </c>
+      <c r="D757" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="B757" s="2">
-        <v>255</v>
-      </c>
-      <c r="C757" s="2">
-        <v>255</v>
-      </c>
-      <c r="D757" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A758" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="B758" s="2">
         <v>238</v>
@@ -13284,9 +13285,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B759" s="2">
         <v>205</v>
@@ -13298,9 +13299,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B760" s="2">
         <v>139</v>
@@ -13312,9 +13313,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B761" s="2">
         <v>154</v>
